--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963799.782719396</v>
+        <v>2958078.170751511</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836228</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8900142.650727659</v>
+        <v>8900142.650727658</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.8085986774204</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>216.4445740591063</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.9069145994739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>120.0321124540375</v>
       </c>
       <c r="F5" t="n">
-        <v>82.18341110359894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.03156470826313</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>298.5562569110055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.2202590352922</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.19510348422564</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.22746565719282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.35845638296546</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>80.45641390352775</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.10718450786062</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>13.8907283799707</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292615</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247753</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734053377</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744733</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.53208246928346</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292615</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247753</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734100194</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.17476957998777</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>5.947390656459972</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292615</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247753</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100194</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.64355545146866</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>81.26439500202656</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292615</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247753</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100194</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>40.6444443721288</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.7355244018749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>44.98902468820717</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.19292662790629</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9022384814635</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.91940677553703</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>21.37163840672734</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7465775938973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>38.72710830254994</v>
       </c>
       <c r="E46" t="n">
-        <v>110.7601806687306</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.197604328644</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.543549400789</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1035.581032460377</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="D5" t="n">
-        <v>1035.581032460377</v>
+        <v>196.0564446653584</v>
       </c>
       <c r="E5" t="n">
-        <v>1035.581032460377</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.543549400789</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,37 +4658,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.652482896327</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.689965955915</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>780.4242673491644</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>780.4242673491644</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>773.478766599961</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5149584981478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.652482896327</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>455.5174175241617</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>455.5174175241617</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425.7583423057196</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C13" t="n">
-        <v>256.8221593778127</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1395.122674528316</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>1105.705504491355</v>
       </c>
       <c r="X13" t="n">
-        <v>646.5509214492497</v>
+        <v>877.7159535933382</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7583423057196</v>
+        <v>656.9233744498081</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,13 +5263,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089256</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366029</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195858</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.02852125464</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,13 +5360,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1032.99552048317</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931531</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.7880996267</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.7880996267</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1253.7880996267</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1032.99552048317</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3070.887536710053</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,7 +5545,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102194</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.6246893481016</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,49 +5676,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783413</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783413</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2731541783413</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.2731541783413</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216428</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.230460361819</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420601</v>
+        <v>3070.887536710048</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750057</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320229</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902948</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549548</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5910,52 +5910,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442059</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927017</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987876</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781989</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>805.3189328470107</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.1754152012699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074194</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972651</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6053,34 +6053,34 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320274</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454343</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.8526275526848</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>490.9164446247779</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442059</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927017</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384225</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783381</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413776</v>
       </c>
       <c r="X25" t="n">
-        <v>703.4635059163088</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y25" t="n">
-        <v>703.4635059163088</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871637</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318582</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.71202182757</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6271,7 +6271,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6290,34 +6290,34 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320229</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1032.995520483169</v>
+        <v>590.1253288168928</v>
       </c>
       <c r="C28" t="n">
-        <v>864.0593375552626</v>
+        <v>421.1891458889859</v>
       </c>
       <c r="D28" t="n">
-        <v>713.9426981429268</v>
+        <v>421.1891458889859</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>421.1891458889859</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>421.1891458889859</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442059</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927017</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.788099626699</v>
+        <v>1509.973093725641</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.788099626699</v>
+        <v>1220.55592368868</v>
       </c>
       <c r="X28" t="n">
-        <v>1253.788099626699</v>
+        <v>992.5663727906626</v>
       </c>
       <c r="Y28" t="n">
-        <v>1032.995520483169</v>
+        <v>771.7737936471325</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074194</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608984</v>
       </c>
       <c r="L29" t="n">
-        <v>1732.058578925876</v>
+        <v>1614.698881814252</v>
       </c>
       <c r="M29" t="n">
-        <v>2265.590483597801</v>
+        <v>2593.24918464408</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870725</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750061</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320274</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454343</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008796</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3475.4049388504</v>
+        <v>402.8778888732377</v>
       </c>
       <c r="C31" t="n">
-        <v>3475.4049388504</v>
+        <v>233.9417059453308</v>
       </c>
       <c r="D31" t="n">
-        <v>3475.4049388504</v>
+        <v>233.9417059453308</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.4049388504</v>
+        <v>233.9417059453308</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>233.9417059453308</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>233.9417059453308</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442059</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927017</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816073</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="U31" t="n">
-        <v>4075.496355941717</v>
+        <v>1577.410141987873</v>
       </c>
       <c r="V31" t="n">
-        <v>4075.496355941717</v>
+        <v>1322.725653781986</v>
       </c>
       <c r="W31" t="n">
-        <v>3786.079185904756</v>
+        <v>1033.308483745025</v>
       </c>
       <c r="X31" t="n">
-        <v>3786.079185904756</v>
+        <v>805.3189328470075</v>
       </c>
       <c r="Y31" t="n">
-        <v>3657.05340368064</v>
+        <v>584.5263537034774</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9417306852383</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="C34" t="n">
-        <v>270.9417306852383</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D34" t="n">
-        <v>270.9417306852383</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E34" t="n">
-        <v>123.0286371028452</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>123.0286371028452</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154781</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862918</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.613856788637</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839441</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.331104002215</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1623.564488571742</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1334.461621697385</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.461621697385</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.044451660424</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,49 +7159,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7277,10 +7277,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.525731183237</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1930.162247139515</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1738.476362966341</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1738.476362966341</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1449.373496091985</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1449.373496091985</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.956326055024</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>931.9667751570069</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.1741960134767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>556.371005353728</v>
+        <v>533.5270475124405</v>
       </c>
       <c r="C43" t="n">
-        <v>556.371005353728</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="D43" t="n">
-        <v>556.371005353728</v>
+        <v>214.4742251721979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W43" t="n">
-        <v>931.4530568143261</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X43" t="n">
-        <v>777.1635844972582</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y43" t="n">
-        <v>556.371005353728</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972631</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750616</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580441</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807085</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750063</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7678,22 +7678,22 @@
         <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216193</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454334</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008787</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142684</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902941</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3495.091030974026</v>
+        <v>714.8612091800761</v>
       </c>
       <c r="C46" t="n">
-        <v>3326.154848046119</v>
+        <v>545.9250262521692</v>
       </c>
       <c r="D46" t="n">
-        <v>3176.038208633783</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>3064.159238261328</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>2917.269290763418</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763418</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763418</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763418</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210353</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159229</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607724</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207272</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913136</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833548</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267207</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4556.285106989247</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>4267.18224011489</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V46" t="n">
-        <v>4012.497751909003</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W46" t="n">
-        <v>3723.080581872043</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X46" t="n">
-        <v>3495.091030974026</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y46" t="n">
-        <v>3495.091030974026</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>96.13798426930737</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>219.3344627260146</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>294.8707872801635</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>146.0713065388554</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>229.1543674071892</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.681643961390591e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.253057640032</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>29.61882225792954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400334</v>
       </c>
       <c r="L29" t="n">
-        <v>345.3140082169171</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>201.9664098701125</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400441</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>134.3880073610195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.7791869408625</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.79040719510009</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.1396365907672</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>152.1350798790575</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696867</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.0525708828113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.6572106019495</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>219.7622647325772</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>86.7904071951005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.76141325700166</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.110570542192</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.84912895021994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>134.8429554937301</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.8328816311219</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>79.8667868499784</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.0127458945103</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0623242398418</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>72.96307779513987</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>109.8883647156624</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67378197783862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983829</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004763</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083309</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083309</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635223</v>
@@ -26334,28 +26334,28 @@
         <v>655184.9483635222</v>
       </c>
       <c r="I2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="J2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="J2" t="n">
-        <v>655184.9483635226</v>
-      </c>
       <c r="K2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="L2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="M2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="N2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="O2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="P2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="O2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="P2" t="n">
-        <v>655184.9483635221</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>8.604115464549978e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.546847158422069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709198</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709193</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709197</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.6079970921</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,13 +26484,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323502</v>
+        <v>-187674.0935323505</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821944</v>
+        <v>402293.7856821942</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821944</v>
+        <v>402293.7856821939</v>
       </c>
       <c r="E6" t="n">
-        <v>-190195.59188069</v>
+        <v>-190867.5467829473</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127165</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="G6" t="n">
-        <v>537181.8221127169</v>
+        <v>536509.8672104592</v>
       </c>
       <c r="H6" t="n">
-        <v>537181.8221127167</v>
+        <v>536509.8672104595</v>
       </c>
       <c r="I6" t="n">
-        <v>537181.8221127172</v>
+        <v>536509.8672104587</v>
       </c>
       <c r="J6" t="n">
-        <v>360758.6029201243</v>
+        <v>360086.648017866</v>
       </c>
       <c r="K6" t="n">
-        <v>537181.8221127167</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="L6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.8672104584</v>
       </c>
       <c r="M6" t="n">
-        <v>407539.5072737721</v>
+        <v>406867.5523715143</v>
       </c>
       <c r="N6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.867210459</v>
       </c>
       <c r="O6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.8672104592</v>
       </c>
       <c r="P6" t="n">
-        <v>537181.8221127188</v>
+        <v>536509.8672104591</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.820872386231916e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.9252429860602</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>138.2384675615766</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.67773875262091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>261.8982576182243</v>
       </c>
       <c r="F5" t="n">
-        <v>324.6926346381125</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>242.1060786155649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>25.36651585335164</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8148464227921</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523654</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29280,13 +29280,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.269194918258167e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-5.16541611216363e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681593</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844662</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003804</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623185</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574984</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095013</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746406</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781684</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806939</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752247</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.956561913879</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238311</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898487</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883111</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712204</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112285</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681593</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844662</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003804</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623185</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574984</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095013</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746406</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781684</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806939</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345273</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752247</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138835</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238311</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898487</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883111</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712204</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112285</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681593</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844662</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003804</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623185</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574984</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095013</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746406</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781684</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806939</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345273</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752247</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913879</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970289</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238311</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898487</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883111</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712204</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112285</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681593</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844662</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003804</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623185</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574984</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095013</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746406</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781684</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806939</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345273</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752247</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138835</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238311</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898487</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883111</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712204</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112285</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34210,10 +34210,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003791</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781674</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987604</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909881</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>635.0591000995341</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>727.387463614234</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>802.9237881683829</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265646</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923313</v>
       </c>
       <c r="M20" t="n">
-        <v>684.9924223690823</v>
+        <v>538.9211158302257</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248946</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>737.2073682954074</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193711</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636236</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597682</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859619</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789346</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687121</v>
       </c>
       <c r="K23" t="n">
-        <v>404.727924322443</v>
+        <v>337.1912865553998</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427817</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230582</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248946</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282502</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193711</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037189</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222444</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597682</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340094</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859619</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789346</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265646</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923313</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302257</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509636</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636236</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080015398</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597682</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525845</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859619</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789346</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687121</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954332</v>
       </c>
       <c r="L29" t="n">
-        <v>800.9041226092493</v>
+        <v>873.2513289427817</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230582</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248946</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882182</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193711</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037189</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222444</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597682</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340094</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859619</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789346</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>600.7283960894844</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865553986</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427802</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230566</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.648759824893</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282608</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193697</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037179</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597637</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127389</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958078.170751511</v>
+        <v>2961483.661875959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836228</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>216.4445740591063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>120.0321124540375</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850751</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.19510348422564</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>2.148488117498866</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>57.35845638296546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>230.3523348029737</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>13.8907283799707</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.4855267871103</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292615</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851117</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247753</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734053377</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744733</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292615</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851117</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247753</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734100194</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>5.947390656459972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292615</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851117</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247753</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734100194</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.26439500202656</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292615</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851117</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247753</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734100194</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>40.6444443721288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.451579104186333</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.98902468820717</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>104.0438938896184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873202</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>21.37163840672734</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>38.72710830254994</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.777806202926</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>554.3221432721089</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0564446653584</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.2139837551626</v>
@@ -5035,34 +5035,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5144,16 +5144,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.9233744498081</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9233744498081</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1864.342818844555</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1642.576203414082</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1353.473336539725</v>
       </c>
       <c r="V13" t="n">
-        <v>1395.122674528316</v>
+        <v>1098.788848333838</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.705504491355</v>
+        <v>809.3716782968776</v>
       </c>
       <c r="X13" t="n">
-        <v>877.7159535933382</v>
+        <v>581.3821273988602</v>
       </c>
       <c r="Y13" t="n">
-        <v>656.9233744498081</v>
+        <v>360.5895482553301</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5287,13 +5287,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1310.211840437446</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1310.211840437446</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1020.794670400485</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>792.8051195024677</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>278.5282561439485</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C19" t="n">
-        <v>109.5920732160416</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>109.5920732160416</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>109.5920732160416</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>109.5920732160416</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258583</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052696</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W19" t="n">
-        <v>908.9588510157357</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X19" t="n">
-        <v>680.9693001177184</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.1767209741882</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277724</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483402</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>3070.887536710048</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322501</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5816,43 +5816,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320229</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008792</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902948</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549548</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5910,52 +5910,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927017</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5974,61 +5974,61 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074194</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972651</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750619</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580447</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807093</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.97392775006</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6053,34 +6053,34 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320274</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6147,52 +6147,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927017</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689055</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258582</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384225</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783381</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413776</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X25" t="n">
-        <v>613.848518831822</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277724</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483402</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542183</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871637</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318582</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.71202182757</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320229</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008792</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590.1253288168928</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>421.1891458889859</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>421.1891458889859</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>421.1891458889859</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>421.1891458889859</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927017</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931528</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931528</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.657581931528</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725641</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.55592368868</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>992.5663727906626</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>771.7737936471325</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074194</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608984</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814252</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.24918464408</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870725</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750061</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107239</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320274</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.8778888732377</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>233.9417059453308</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>233.9417059453308</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>233.9417059453308</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>233.9417059453308</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>233.9417059453308</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927017</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862229</v>
+        <v>1953.867123575223</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987873</v>
+        <v>1664.764256700866</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781986</v>
+        <v>1410.079768494979</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.308483745025</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="X31" t="n">
-        <v>805.3189328470075</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.5263537034774</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6709,10 +6709,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.3303343661177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.555923688682</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>992.5663727906651</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>771.773793647135</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6952,7 +6952,7 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107236</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,10 +7016,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>893.6944659454626</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>953.4728278125308</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1404.50704106094</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7277,10 +7277,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7365,19 +7365,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7408,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2996.062531649192</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3876.027181978647</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.5270475124405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5908645845336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4742251721979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7605,16 +7605,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.957642384228</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>935.9680914862104</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.1755123426802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7663,16 +7663,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.8612091800761</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>545.9250262521692</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.060509258584</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V46" t="n">
-        <v>1453.060509258584</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>1163.643339221624</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>935.6537883236062</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>714.8612091800761</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>441.4693580670868</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>229.1543674071892</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.681643961390591e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640032</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792954</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400334</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>133.2530576400247</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>169.5026663584964</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,13 +10837,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>201.9664098701125</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>187.620537213943</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>194.7791869408625</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>55.85950340263915</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.1350798790575</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>60.7263114185026</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696867</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>219.7622647325772</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.76141325700166</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.110570542192</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>217.0973701719829</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.8429554937301</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>125.0623242398418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>109.8883647156624</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>29.02894347705821</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083309</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755427.9998083309</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380331</v>
-      </c>
       <c r="E2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="I2" t="n">
         <v>655184.9483635222</v>
       </c>
       <c r="J2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635221</v>
       </c>
       <c r="K2" t="n">
         <v>655184.9483635225</v>
@@ -26346,16 +26346,16 @@
         <v>655184.9483635225</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="N2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="O2" t="n">
         <v>655184.9483635223</v>
       </c>
-      <c r="O2" t="n">
-        <v>655184.9483635225</v>
-      </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635223</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.604115464549978e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
@@ -26426,25 +26426,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709198</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709195</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709193</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709197</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26453,13 +26453,13 @@
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371363</v>
-      </c>
       <c r="I5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323505</v>
+        <v>-187674.0935323501</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821942</v>
+        <v>402293.7856821944</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821939</v>
+        <v>402293.7856821941</v>
       </c>
       <c r="E6" t="n">
-        <v>-190867.5467829473</v>
+        <v>-190262.7873709154</v>
       </c>
       <c r="F6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="G6" t="n">
-        <v>536509.8672104592</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="H6" t="n">
-        <v>536509.8672104595</v>
+        <v>537114.6266224911</v>
       </c>
       <c r="I6" t="n">
-        <v>536509.8672104587</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="J6" t="n">
-        <v>360086.648017866</v>
+        <v>360691.4074298979</v>
       </c>
       <c r="K6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="L6" t="n">
-        <v>536509.8672104584</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="M6" t="n">
-        <v>406867.5523715143</v>
+        <v>407472.3117835465</v>
       </c>
       <c r="N6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224914</v>
       </c>
       <c r="O6" t="n">
-        <v>536509.8672104592</v>
+        <v>537114.6266224911</v>
       </c>
       <c r="P6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224911</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26755,16 +26755,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>138.2384675615766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>32.16715461496403</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>261.8982576182243</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>19.9779425464199</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339393</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>272.3278948523654</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.16541611216363e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681593</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844662</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953984</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003804</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623185</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574984</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095013</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746406</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781684</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563566</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806939</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345273</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752247</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.956561913879</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002922</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987483</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238311</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898487</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742012</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883111</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085998</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712204</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553032</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112285</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681593</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844662</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953984</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003804</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623185</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574984</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095013</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746406</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781684</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563566</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806939</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345273</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752247</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138835</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002922</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987483</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238311</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898487</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742012</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883111</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085998</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712204</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553032</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112285</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681593</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844662</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953984</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003804</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623185</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574984</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095013</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746406</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781684</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563566</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806939</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345273</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752247</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.956561913879</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970289</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002922</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987483</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238311</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898487</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742012</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883111</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023085998</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712204</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553032</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112285</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681593</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844662</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953984</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003804</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623185</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574984</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095013</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746406</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781684</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563566</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806939</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345273</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752247</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138835</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002922</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987483</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238311</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898487</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742012</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883111</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023085998</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712204</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553032</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112285</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407859</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265646</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302257</v>
+        <v>980.3904738973135</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248946</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>737.2073682954074</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193711</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636236</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152069</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597682</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340048</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859619</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127268</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443193</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675397</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789346</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687121</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553998</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427817</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230582</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248946</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282502</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193711</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037189</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222444</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597682</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340094</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859619</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127268</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443193</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675397</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789346</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407859</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265646</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302257</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129103</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509636</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908538</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636236</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080015398</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597682</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340048</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525845</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859619</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127268</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443193</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675397</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789346</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687121</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>470.4443441954332</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427817</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230582</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248946</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882182</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193711</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037189</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222444</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597682</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340094</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859619</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127268</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443193</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675397</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789346</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37320,10 +37320,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>532.0150438593965</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>506.6939529138969</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,13 +37557,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>600.7283960894844</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
